--- a/data/Subset1_WithDialogActs/Math US3 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math US3 transcript.xlsx_with_dialog_acts.xlsx
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4427,12 +4427,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4889,12 +4889,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4973,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5993,12 +5993,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6077,12 +6077,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6795,12 +6795,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8361,12 +8361,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8487,12 +8487,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8823,12 +8823,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10435,12 +10435,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10481,12 +10481,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10523,12 +10523,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11783,12 +11783,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12077,12 +12077,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12245,12 +12245,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12329,12 +12329,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13169,12 +13169,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14009,12 +14009,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14135,12 +14135,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14177,12 +14177,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14975,12 +14975,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15487,12 +15487,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15613,12 +15613,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15659,12 +15659,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15701,12 +15701,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16369,12 +16369,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16625,12 +16625,12 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16667,12 +16667,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16751,12 +16751,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16793,12 +16793,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16961,12 +16961,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17003,12 +17003,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17389,12 +17389,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17893,12 +17893,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19497,12 +19497,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20379,12 +20379,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20765,12 +20765,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21059,12 +21059,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21395,12 +21395,12 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21479,12 +21479,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21605,12 +21605,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21899,12 +21899,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22109,12 +22109,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23583,12 +23583,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24759,12 +24759,12 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25095,12 +25095,12 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25473,12 +25473,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25683,12 +25683,12 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26355,12 +26355,12 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26397,12 +26397,12 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26565,12 +26565,12 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26607,12 +26607,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26733,12 +26733,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27111,12 +27111,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28215,12 +28215,12 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29089,12 +29089,12 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29295,12 +29295,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29879,12 +29879,12 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30387,12 +30387,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30429,12 +30429,12 @@
       <c r="H712" t="inlineStr"/>
       <c r="I712" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30471,12 +30471,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30681,12 +30681,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30849,12 +30849,12 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31437,12 +31437,12 @@
       <c r="H736" t="inlineStr"/>
       <c r="I736" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31563,12 +31563,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31773,12 +31773,12 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31815,12 +31815,12 @@
       <c r="H745" t="inlineStr"/>
       <c r="I745" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33037,12 +33037,12 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33079,12 +33079,12 @@
       <c r="H775" t="inlineStr"/>
       <c r="I775" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33457,12 +33457,12 @@
       <c r="H784" t="inlineStr"/>
       <c r="I784" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -33793,12 +33793,12 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33961,12 +33961,12 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34465,12 +34465,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34759,12 +34759,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -35263,12 +35263,12 @@
       <c r="H827" t="inlineStr"/>
       <c r="I827" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35767,12 +35767,12 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36985,12 +36985,12 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37321,12 +37321,12 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37489,12 +37489,12 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37699,12 +37699,12 @@
       <c r="H885" t="inlineStr"/>
       <c r="I885" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37741,12 +37741,12 @@
       <c r="H886" t="inlineStr"/>
       <c r="I886" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38581,12 +38581,12 @@
       <c r="H906" t="inlineStr"/>
       <c r="I906" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38791,12 +38791,12 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38837,12 +38837,12 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38879,12 +38879,12 @@
       <c r="H913" t="inlineStr"/>
       <c r="I913" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38967,12 +38967,12 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39009,12 +39009,12 @@
       <c r="H916" t="inlineStr"/>
       <c r="I916" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39177,12 +39177,12 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39219,12 +39219,12 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39261,12 +39261,12 @@
       <c r="H922" t="inlineStr"/>
       <c r="I922" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39639,12 +39639,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40185,12 +40185,12 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40609,12 +40609,12 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40819,12 +40819,12 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41029,12 +41029,12 @@
       <c r="H964" t="inlineStr"/>
       <c r="I964" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41281,12 +41281,12 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41365,12 +41365,12 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42331,12 +42331,12 @@
       <c r="H995" t="inlineStr"/>
       <c r="I995" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42499,12 +42499,12 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42541,12 +42541,12 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42751,12 +42751,12 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43297,12 +43297,12 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43339,12 +43339,12 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43423,12 +43423,12 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43591,12 +43591,12 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43633,12 +43633,12 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43885,12 +43885,12 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43927,12 +43927,12 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44053,12 +44053,12 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44095,12 +44095,12 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44221,12 +44221,12 @@
       <c r="H1040" t="inlineStr"/>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44767,12 +44767,12 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -45359,12 +45359,12 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45485,12 +45485,12 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45611,12 +45611,12 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45821,12 +45821,12 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46031,12 +46031,12 @@
       <c r="H1083" t="inlineStr"/>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1083" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46115,12 +46115,12 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46283,12 +46283,12 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -46493,12 +46493,12 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47131,12 +47131,12 @@
       <c r="H1109" t="inlineStr"/>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47513,12 +47513,12 @@
       <c r="H1118" t="inlineStr"/>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47727,12 +47727,12 @@
       <c r="H1123" t="inlineStr"/>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1123" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -49113,12 +49113,12 @@
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -49747,12 +49747,12 @@
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49957,12 +49957,12 @@
       <c r="H1176" t="inlineStr"/>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -50041,12 +50041,12 @@
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -50461,12 +50461,12 @@
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -50545,12 +50545,12 @@
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -50923,12 +50923,12 @@
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51049,12 +51049,12 @@
       </c>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -51175,12 +51175,12 @@
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -51805,12 +51805,12 @@
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -52015,12 +52015,12 @@
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -52141,12 +52141,12 @@
       </c>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52267,12 +52267,12 @@
       </c>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52393,12 +52393,12 @@
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52477,12 +52477,12 @@
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1236" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52519,12 +52519,12 @@
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1237" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52603,12 +52603,12 @@
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52897,12 +52897,12 @@
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53023,12 +53023,12 @@
       <c r="H1249" t="inlineStr"/>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1249" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -53947,12 +53947,12 @@
       <c r="H1271" t="inlineStr"/>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1271" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -54409,12 +54409,12 @@
       </c>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1282" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -54493,12 +54493,12 @@
       <c r="H1284" t="inlineStr"/>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -54577,12 +54577,12 @@
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -55123,12 +55123,12 @@
       </c>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -55333,12 +55333,12 @@
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1304" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -56341,12 +56341,12 @@
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1328" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -57391,12 +57391,12 @@
       </c>
       <c r="I1353" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1353" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -58315,12 +58315,12 @@
       </c>
       <c r="I1375" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1375" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -58483,12 +58483,12 @@
       </c>
       <c r="I1379" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1379" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -58567,12 +58567,12 @@
       </c>
       <c r="I1381" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1381" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -58693,12 +58693,12 @@
       </c>
       <c r="I1384" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1384" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -58861,12 +58861,12 @@
       </c>
       <c r="I1388" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1388" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -58945,12 +58945,12 @@
       <c r="H1390" t="inlineStr"/>
       <c r="I1390" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1390" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -58987,12 +58987,12 @@
       <c r="H1391" t="inlineStr"/>
       <c r="I1391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -59281,12 +59281,12 @@
       </c>
       <c r="I1398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -59407,12 +59407,12 @@
       </c>
       <c r="I1401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -60881,12 +60881,12 @@
       </c>
       <c r="I1436" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1436" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -61683,12 +61683,12 @@
       <c r="H1455" t="inlineStr"/>
       <c r="I1455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -61851,12 +61851,12 @@
       <c r="H1459" t="inlineStr"/>
       <c r="I1459" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1459" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -62355,12 +62355,12 @@
       </c>
       <c r="I1471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -62653,12 +62653,12 @@
       </c>
       <c r="I1478" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J1478" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -63325,12 +63325,12 @@
       </c>
       <c r="I1494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -63871,12 +63871,12 @@
       </c>
       <c r="I1507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J1507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -64417,12 +64417,12 @@
       <c r="H1520" t="inlineStr"/>
       <c r="I1520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -64627,12 +64627,12 @@
       <c r="H1525" t="inlineStr"/>
       <c r="I1525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -65673,12 +65673,12 @@
       <c r="H1550" t="inlineStr"/>
       <c r="I1550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -65715,12 +65715,12 @@
       </c>
       <c r="I1551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -65757,12 +65757,12 @@
       </c>
       <c r="I1552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -66093,12 +66093,12 @@
       </c>
       <c r="I1560" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1560" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -66135,12 +66135,12 @@
       </c>
       <c r="I1561" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1561" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -66219,12 +66219,12 @@
       </c>
       <c r="I1563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -66387,12 +66387,12 @@
       <c r="H1567" t="inlineStr"/>
       <c r="I1567" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1567" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -66555,12 +66555,12 @@
       </c>
       <c r="I1571" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1571" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -67395,12 +67395,12 @@
       <c r="H1591" t="inlineStr"/>
       <c r="I1591" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1591" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -67437,12 +67437,12 @@
       <c r="H1592" t="inlineStr"/>
       <c r="I1592" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J1592" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -67815,12 +67815,12 @@
       </c>
       <c r="I1601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -67857,12 +67857,12 @@
       </c>
       <c r="I1602" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1602" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -67899,12 +67899,12 @@
       </c>
       <c r="I1603" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1603" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -67941,12 +67941,12 @@
       </c>
       <c r="I1604" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1604" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68109,12 +68109,12 @@
       </c>
       <c r="I1608" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1608" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68235,12 +68235,12 @@
       </c>
       <c r="I1611" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1611" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68277,12 +68277,12 @@
       </c>
       <c r="I1612" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1612" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68361,12 +68361,12 @@
       </c>
       <c r="I1614" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1614" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -68445,12 +68445,12 @@
       <c r="H1616" t="inlineStr"/>
       <c r="I1616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -68571,12 +68571,12 @@
       </c>
       <c r="I1619" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1619" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68613,12 +68613,12 @@
       </c>
       <c r="I1620" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1620" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68781,12 +68781,12 @@
       </c>
       <c r="I1624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -68949,12 +68949,12 @@
       </c>
       <c r="I1628" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1628" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -69075,12 +69075,12 @@
       <c r="H1631" t="inlineStr"/>
       <c r="I1631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -69201,12 +69201,12 @@
       </c>
       <c r="I1634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -69411,12 +69411,12 @@
       </c>
       <c r="I1639" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1639" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69537,12 +69537,12 @@
       </c>
       <c r="I1642" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1642" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69789,12 +69789,12 @@
       <c r="H1648" t="inlineStr"/>
       <c r="I1648" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1648" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -70209,12 +70209,12 @@
       </c>
       <c r="I1658" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1658" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
